--- a/public/logos/Logos.xlsx
+++ b/public/logos/Logos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twodegrees1-my.sharepoint.com/personal/bradm_slalom_com/Documents/Desktop/Staffing Kiosk/project/staffing-display/public/logos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twodegrees1-my.sharepoint.com/personal/bradm_slalom_com/Documents/Desktop/Staffing Kiosk/project/data-display/public/logos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="8_{52313420-47E0-44ED-99F8-478313F0E4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E15288E-8C14-49F7-94D9-E7705B399E32}"/>
+  <xr:revisionPtr revIDLastSave="322" documentId="8_{52313420-47E0-44ED-99F8-478313F0E4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A5AE8A0-8F36-47FD-B57D-AF5B51AF8C8F}"/>
   <bookViews>
-    <workbookView xWindow="-24390" yWindow="-6500" windowWidth="23230" windowHeight="12040" activeTab="1" xr2:uid="{0D88AD75-73AC-4576-8A49-495AF8140998}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="12336" windowHeight="13776" xr2:uid="{0D88AD75-73AC-4576-8A49-495AF8140998}"/>
   </bookViews>
   <sheets>
     <sheet name="Client Logos" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="315">
   <si>
     <t>NYCIRB</t>
   </si>
@@ -977,6 +977,15 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1049,11 +1058,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1457,17 +1463,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EDBE7E-334F-4CE1-ADE2-CC55842A9D0F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D269"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D265" sqref="D265"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" customWidth="1"/>
     <col min="3" max="4" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
@@ -1485,7 +1492,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1500,7 +1507,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>235</v>
       </c>
@@ -1511,8 +1518,11 @@
       <c r="C3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>263</v>
       </c>
@@ -1523,8 +1533,11 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1539,7 +1552,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>107</v>
       </c>
@@ -1554,7 +1567,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>260</v>
       </c>
@@ -1565,8 +1578,11 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>265</v>
       </c>
@@ -1577,8 +1593,11 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1593,7 +1612,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1608,7 +1627,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
@@ -1623,7 +1642,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>247</v>
       </c>
@@ -1634,8 +1653,11 @@
       <c r="C12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
@@ -1650,7 +1672,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -1665,7 +1687,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -1680,7 +1702,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>250</v>
       </c>
@@ -1691,8 +1713,11 @@
       <c r="C16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1707,7 +1732,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>255</v>
       </c>
@@ -1718,8 +1743,11 @@
       <c r="C18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>266</v>
       </c>
@@ -1730,8 +1758,11 @@
       <c r="C19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -1746,7 +1777,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>251</v>
       </c>
@@ -1757,8 +1788,11 @@
       <c r="C21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>78</v>
       </c>
@@ -1773,7 +1807,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>104</v>
       </c>
@@ -1788,7 +1822,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -1803,7 +1837,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1818,7 +1852,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
@@ -1833,7 +1867,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>267</v>
       </c>
@@ -1844,8 +1878,11 @@
       <c r="C27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>92</v>
       </c>
@@ -1860,7 +1897,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -1875,7 +1912,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>264</v>
       </c>
@@ -1886,8 +1923,11 @@
       <c r="C30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1902,7 +1942,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>83</v>
       </c>
@@ -1917,7 +1957,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>248</v>
       </c>
@@ -1928,8 +1968,11 @@
       <c r="C33" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>85</v>
       </c>
@@ -1944,7 +1987,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>256</v>
       </c>
@@ -1955,8 +1998,11 @@
       <c r="C35" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>252</v>
       </c>
@@ -1967,8 +2013,11 @@
       <c r="C36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>243</v>
       </c>
@@ -1979,8 +2028,11 @@
       <c r="C37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>244</v>
       </c>
@@ -1991,8 +2043,11 @@
       <c r="C38" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>209</v>
       </c>
@@ -2007,7 +2062,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>210</v>
       </c>
@@ -2018,8 +2073,11 @@
       <c r="C40" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>225</v>
       </c>
@@ -2030,8 +2088,11 @@
       <c r="C41" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>197</v>
       </c>
@@ -2042,8 +2103,11 @@
       <c r="C42" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>148</v>
       </c>
@@ -2054,8 +2118,11 @@
       <c r="C43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>211</v>
       </c>
@@ -2066,8 +2133,11 @@
       <c r="C44" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>198</v>
       </c>
@@ -2078,8 +2148,11 @@
       <c r="C45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>73</v>
       </c>
@@ -2094,7 +2167,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>257</v>
       </c>
@@ -2105,8 +2178,11 @@
       <c r="C47" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>199</v>
       </c>
@@ -2117,8 +2193,11 @@
       <c r="C48" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -2129,8 +2208,11 @@
       <c r="C49" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>162</v>
       </c>
@@ -2141,8 +2223,11 @@
       <c r="C50" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>184</v>
       </c>
@@ -2153,8 +2238,11 @@
       <c r="C51" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -2165,8 +2253,11 @@
       <c r="C52" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>163</v>
       </c>
@@ -2177,8 +2268,11 @@
       <c r="C53" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>126</v>
       </c>
@@ -2189,8 +2283,11 @@
       <c r="C54" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>49</v>
       </c>
@@ -2201,8 +2298,11 @@
       <c r="C55" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>127</v>
       </c>
@@ -2213,8 +2313,11 @@
       <c r="C56" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>188</v>
       </c>
@@ -2225,8 +2328,11 @@
       <c r="C57" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>143</v>
       </c>
@@ -2237,8 +2343,11 @@
       <c r="C58" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>196</v>
       </c>
@@ -2249,8 +2358,11 @@
       <c r="C59" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>227</v>
       </c>
@@ -2261,8 +2373,11 @@
       <c r="C60" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>39</v>
       </c>
@@ -2273,8 +2388,11 @@
       <c r="C61" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>86</v>
       </c>
@@ -2285,8 +2403,11 @@
       <c r="C62" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>119</v>
       </c>
@@ -2297,8 +2418,11 @@
       <c r="C63" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>53</v>
       </c>
@@ -2309,8 +2433,11 @@
       <c r="C64" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
@@ -2321,8 +2448,11 @@
       <c r="C65" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -2333,8 +2463,11 @@
       <c r="C66" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>213</v>
       </c>
@@ -2345,8 +2478,11 @@
       <c r="C67" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>185</v>
       </c>
@@ -2357,8 +2493,11 @@
       <c r="C68" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>261</v>
       </c>
@@ -2369,8 +2508,11 @@
       <c r="C69" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>156</v>
       </c>
@@ -2381,8 +2523,11 @@
       <c r="C70" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>102</v>
       </c>
@@ -2393,8 +2538,11 @@
       <c r="C71" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -2405,8 +2553,11 @@
       <c r="C72" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>200</v>
       </c>
@@ -2417,8 +2568,11 @@
       <c r="C73" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>212</v>
       </c>
@@ -2429,8 +2583,11 @@
       <c r="C74" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>245</v>
       </c>
@@ -2441,8 +2598,11 @@
       <c r="C75" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>37</v>
       </c>
@@ -2453,8 +2613,11 @@
       <c r="C76" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -2465,8 +2628,11 @@
       <c r="C77" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>50</v>
       </c>
@@ -2477,8 +2643,11 @@
       <c r="C78" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,8 +2658,11 @@
       <c r="C79" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>32</v>
       </c>
@@ -2501,8 +2673,11 @@
       <c r="C80" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D80" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2513,8 +2688,11 @@
       <c r="C81" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>27</v>
       </c>
@@ -2529,7 +2707,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -2540,8 +2718,11 @@
       <c r="C83" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D83" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>118</v>
       </c>
@@ -2552,8 +2733,11 @@
       <c r="C84" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D84" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>17</v>
       </c>
@@ -2564,8 +2748,11 @@
       <c r="C85" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D85" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -2576,8 +2763,11 @@
       <c r="C86" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D86" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>77</v>
       </c>
@@ -2588,8 +2778,11 @@
       <c r="C87" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>15</v>
       </c>
@@ -2600,8 +2793,11 @@
       <c r="C88" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D88" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>270</v>
       </c>
@@ -2612,8 +2808,11 @@
       <c r="C89" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D89" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>192</v>
       </c>
@@ -2624,8 +2823,11 @@
       <c r="C90" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D90" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>128</v>
       </c>
@@ -2636,8 +2838,11 @@
       <c r="C91" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D91" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>120</v>
       </c>
@@ -2648,8 +2853,11 @@
       <c r="C92" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D92" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>96</v>
       </c>
@@ -2659,6 +2867,9 @@
       </c>
       <c r="C93" s="3">
         <v>1</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2672,6 +2883,9 @@
       <c r="C94" s="3">
         <v>1</v>
       </c>
+      <c r="D94" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
@@ -2684,6 +2898,9 @@
       <c r="C95" s="3">
         <v>1</v>
       </c>
+      <c r="D95" s="3" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
@@ -2696,6 +2913,9 @@
       <c r="C96" s="3">
         <v>1</v>
       </c>
+      <c r="D96" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
@@ -2708,6 +2928,9 @@
       <c r="C97" s="3">
         <v>1</v>
       </c>
+      <c r="D97" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
@@ -2720,6 +2943,9 @@
       <c r="C98" s="3">
         <v>1</v>
       </c>
+      <c r="D98" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
@@ -2732,8 +2958,11 @@
       <c r="C99" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D99" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>35</v>
       </c>
@@ -2759,6 +2988,9 @@
       <c r="C101" s="3">
         <v>1</v>
       </c>
+      <c r="D101" s="3" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
@@ -2771,6 +3003,9 @@
       <c r="C102" s="3">
         <v>1</v>
       </c>
+      <c r="D102" s="3" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
@@ -2783,6 +3018,9 @@
       <c r="C103" s="3">
         <v>1</v>
       </c>
+      <c r="D103" s="3" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
@@ -2795,6 +3033,9 @@
       <c r="C104" s="3">
         <v>1</v>
       </c>
+      <c r="D104" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
@@ -2807,6 +3048,9 @@
       <c r="C105" s="3">
         <v>1</v>
       </c>
+      <c r="D105" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
@@ -2819,6 +3063,9 @@
       <c r="C106" s="3">
         <v>1</v>
       </c>
+      <c r="D106" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
@@ -2831,6 +3078,9 @@
       <c r="C107" s="3">
         <v>1</v>
       </c>
+      <c r="D107" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
@@ -2843,6 +3093,9 @@
       <c r="C108" s="3">
         <v>1</v>
       </c>
+      <c r="D108" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
@@ -2855,6 +3108,9 @@
       <c r="C109" s="3">
         <v>1</v>
       </c>
+      <c r="D109" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
@@ -2867,6 +3123,9 @@
       <c r="C110" s="3">
         <v>1</v>
       </c>
+      <c r="D110" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
@@ -2879,6 +3138,9 @@
       <c r="C111" s="3">
         <v>1</v>
       </c>
+      <c r="D111" s="3" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
@@ -2891,6 +3153,9 @@
       <c r="C112" s="3">
         <v>1</v>
       </c>
+      <c r="D112" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
@@ -2903,6 +3168,9 @@
       <c r="C113" s="3">
         <v>1</v>
       </c>
+      <c r="D113" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
@@ -2915,6 +3183,9 @@
       <c r="C114" s="3">
         <v>1</v>
       </c>
+      <c r="D114" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
@@ -2927,6 +3198,9 @@
       <c r="C115" s="3">
         <v>1</v>
       </c>
+      <c r="D115" s="3" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -2939,6 +3213,9 @@
       <c r="C116" s="3">
         <v>1</v>
       </c>
+      <c r="D116" s="3" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
@@ -2951,6 +3228,9 @@
       <c r="C117" s="3">
         <v>1</v>
       </c>
+      <c r="D117" s="3" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
@@ -2963,6 +3243,9 @@
       <c r="C118" s="3">
         <v>1</v>
       </c>
+      <c r="D118" s="3" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
@@ -2975,6 +3258,9 @@
       <c r="C119" s="3">
         <v>1</v>
       </c>
+      <c r="D119" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
@@ -2987,6 +3273,9 @@
       <c r="C120" s="3">
         <v>1</v>
       </c>
+      <c r="D120" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
@@ -2999,8 +3288,11 @@
       <c r="C121" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D121" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>101</v>
       </c>
@@ -3026,6 +3318,9 @@
       <c r="C123" s="3">
         <v>1</v>
       </c>
+      <c r="D123" s="3" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
@@ -3038,6 +3333,9 @@
       <c r="C124" s="3">
         <v>1</v>
       </c>
+      <c r="D124" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
@@ -3050,6 +3348,9 @@
       <c r="C125" s="3">
         <v>1</v>
       </c>
+      <c r="D125" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -3062,6 +3363,9 @@
       <c r="C126" s="3">
         <v>1</v>
       </c>
+      <c r="D126" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
@@ -3074,8 +3378,11 @@
       <c r="C127" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D127" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>94</v>
       </c>
@@ -3101,6 +3408,9 @@
       <c r="C129" s="3">
         <v>1</v>
       </c>
+      <c r="D129" s="3" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
@@ -3113,6 +3423,9 @@
       <c r="C130" s="3">
         <v>1</v>
       </c>
+      <c r="D130" s="3" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
@@ -3125,6 +3438,9 @@
       <c r="C131" s="3">
         <v>1</v>
       </c>
+      <c r="D131" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
@@ -3137,6 +3453,9 @@
       <c r="C132" s="3">
         <v>1</v>
       </c>
+      <c r="D132" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
@@ -3149,8 +3468,11 @@
       <c r="C133" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D133" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>203</v>
       </c>
@@ -3176,6 +3498,9 @@
       <c r="C135" s="3">
         <v>1</v>
       </c>
+      <c r="D135" s="3" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
@@ -3188,6 +3513,9 @@
       <c r="C136" s="3">
         <v>1</v>
       </c>
+      <c r="D136" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
@@ -3200,6 +3528,9 @@
       <c r="C137" s="3">
         <v>1</v>
       </c>
+      <c r="D137" s="3" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
@@ -3212,6 +3543,9 @@
       <c r="C138" s="3">
         <v>1</v>
       </c>
+      <c r="D138" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
@@ -3224,6 +3558,9 @@
       <c r="C139" s="3">
         <v>1</v>
       </c>
+      <c r="D139" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
@@ -3236,6 +3573,9 @@
       <c r="C140" s="3">
         <v>1</v>
       </c>
+      <c r="D140" s="3" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
@@ -3573,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>166</v>
       </c>
@@ -3660,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>99</v>
       </c>
@@ -3867,7 +4207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>22</v>
       </c>
@@ -3894,7 +4234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>0</v>
       </c>
@@ -3993,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>113</v>
       </c>
@@ -4032,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>214</v>
       </c>
@@ -4059,7 +4399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>168</v>
       </c>
@@ -4266,7 +4606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>12</v>
       </c>
@@ -4341,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>69</v>
       </c>
@@ -4560,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>57</v>
       </c>
@@ -4659,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>44</v>
       </c>
@@ -4679,7 +5019,7 @@
         <v>14</v>
       </c>
       <c r="B258" s="6" t="str">
-        <f t="shared" ref="B258:B321" si="4">IFERROR(LEFT(A258, FIND(" - ", A258) - 1), A258)</f>
+        <f t="shared" ref="B258:B269" si="4">IFERROR(LEFT(A258, FIND(" - ", A258) - 1), A258)</f>
         <v>USCIS</v>
       </c>
       <c r="C258" s="3">
@@ -4734,7 +5074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>259</v>
       </c>
@@ -4809,7 +5149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>238</v>
       </c>
@@ -4826,6 +5166,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D269" xr:uid="{D9EDBE7E-334F-4CE1-ADE2-CC55842A9D0F}">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D269">
       <sortCondition descending="1" ref="C1:C269"/>
     </sortState>
@@ -4868,8 +5211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE58A7A1-5E60-423F-8CEA-199021B5BFC8}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -4951,7 +5294,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>289</v>
       </c>
       <c r="B6">
@@ -4966,7 +5309,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>283</v>
       </c>
       <c r="B7">
@@ -4981,7 +5324,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>277</v>
       </c>
       <c r="B8">
@@ -4996,7 +5339,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>282</v>
       </c>
       <c r="B9">
@@ -5011,7 +5354,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>288</v>
       </c>
       <c r="B10">
@@ -5026,7 +5369,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>284</v>
       </c>
       <c r="B11">
@@ -5038,7 +5381,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>306</v>
       </c>
       <c r="B12">
@@ -5068,7 +5411,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>275</v>
       </c>
       <c r="B14">
@@ -5083,7 +5426,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>293</v>
       </c>
       <c r="B15">
@@ -5098,7 +5441,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>295</v>
       </c>
       <c r="B16">
@@ -5113,7 +5456,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>292</v>
       </c>
       <c r="B17">
@@ -5128,7 +5471,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>287</v>
       </c>
       <c r="B18">
@@ -5143,7 +5486,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>301</v>
       </c>
       <c r="B19">
@@ -5173,7 +5516,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>297</v>
       </c>
       <c r="B21">
@@ -5188,7 +5531,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>280</v>
       </c>
       <c r="B22">
@@ -5203,7 +5546,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>285</v>
       </c>
       <c r="B23">
@@ -5218,7 +5561,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>276</v>
       </c>
       <c r="B24">
@@ -5233,7 +5576,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>302</v>
       </c>
       <c r="B25">
@@ -5248,7 +5591,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>298</v>
       </c>
       <c r="B26">
@@ -5263,7 +5606,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="8" t="s">
         <v>294</v>
       </c>
       <c r="B27">
@@ -5278,7 +5621,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="8" t="s">
         <v>300</v>
       </c>
       <c r="B28">
@@ -5293,7 +5636,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="8" t="s">
         <v>291</v>
       </c>
       <c r="B29">
@@ -5308,7 +5651,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="8" t="s">
         <v>286</v>
       </c>
       <c r="B30">
@@ -5323,7 +5666,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="8" t="s">
         <v>278</v>
       </c>
       <c r="B31">
@@ -5353,7 +5696,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="8" t="s">
         <v>290</v>
       </c>
       <c r="B33">
@@ -5368,7 +5711,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>299</v>
       </c>
       <c r="B34">
@@ -5383,7 +5726,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="8" t="s">
         <v>279</v>
       </c>
       <c r="B35">
